--- a/uploads/temp - Copy.xlsx
+++ b/uploads/temp - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonter\Documents\workspaces\Web-Forensic\The-Real-API\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E2750E5-89AD-41B9-9DBB-557CD2228003}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B92467-6167-4ACC-B4FC-BF75ED0DD793}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9EFF0D50-5A4D-416F-8B2A-F38FD4951C08}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Adams</t>
   </si>
@@ -54,6 +54,36 @@
   </si>
   <si>
     <t>D19S433</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>gh</t>
+  </si>
+  <si>
+    <t>jk</t>
+  </si>
+  <si>
+    <t>l;</t>
+  </si>
+  <si>
+    <t>po</t>
+  </si>
+  <si>
+    <t>iu</t>
+  </si>
+  <si>
+    <t>yt</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>wq</t>
   </si>
 </sst>
 </file>
@@ -405,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E19A1F8-175A-4358-913F-62A3A7235594}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,6 +539,176 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/temp - Copy.xlsx
+++ b/uploads/temp - Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonter\Documents\workspaces\Web-Forensic\The-Real-API\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B92467-6167-4ACC-B4FC-BF75ED0DD793}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0C57EA-5352-4CB4-813F-EA8995D8132C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{9EFF0D50-5A4D-416F-8B2A-F38FD4951C08}"/>
   </bookViews>
@@ -56,34 +56,34 @@
     <t>D19S433</t>
   </si>
   <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>gh</t>
-  </si>
-  <si>
-    <t>jk</t>
-  </si>
-  <si>
-    <t>l;</t>
-  </si>
-  <si>
-    <t>po</t>
-  </si>
-  <si>
-    <t>iu</t>
-  </si>
-  <si>
-    <t>yt</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>wq</t>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
   </si>
 </sst>
 </file>
